--- a/src/main/java/TestSuite/RegressionScenarios.xlsx
+++ b/src/main/java/TestSuite/RegressionScenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5E1CE7-5C2C-4DF1-B1B8-A25D88FAA233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF78C44B-61B8-4092-9322-A020FF02388E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="420" yWindow="280" windowWidth="18780" windowHeight="9920" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
   <si>
     <t>Scenario Type</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>TS_PM_COA_SEC_ProjectTypeProfile_Regression_001</t>
+  </si>
+  <si>
+    <t>TS_SM_FOU_GAAPGLAccountClassProfile_Regression_001</t>
   </si>
 </sst>
 </file>
@@ -277,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -286,7 +289,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B130D1-9A15-4CB4-A42C-CA3AEBC8C272}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -808,7 +810,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -822,7 +824,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -836,7 +838,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -850,7 +852,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -864,7 +866,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -878,7 +880,7 @@
         <v>17</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -892,7 +894,7 @@
         <v>21</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -906,7 +908,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -920,7 +922,7 @@
         <v>42</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -934,13 +936,22 @@
         <v>44</v>
       </c>
       <c r="D23" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35"/>

--- a/src/main/java/TestSuite/RegressionScenarios.xlsx
+++ b/src/main/java/TestSuite/RegressionScenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF78C44B-61B8-4092-9322-A020FF02388E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDAF03F-F471-468E-ABD8-2B7D42829962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="280" windowWidth="18780" windowHeight="9920" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="18780" windowHeight="9920" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
   <si>
     <t>Scenario Type</t>
   </si>
@@ -181,6 +181,15 @@
   </si>
   <si>
     <t>TS_SM_FOU_GAAPGLAccountClassProfile_Regression_001</t>
+  </si>
+  <si>
+    <t>TS_SM_FOU_GAAPFunctionProfile_Regression_001</t>
+  </si>
+  <si>
+    <t>GAAPFunction Profile</t>
+  </si>
+  <si>
+    <t>GAAP GL Account Class Profile</t>
   </si>
 </sst>
 </file>
@@ -280,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -289,6 +298,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,7 +618,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -943,17 +955,30 @@
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/src/main/java/TestSuite/RegressionScenarios.xlsx
+++ b/src/main/java/TestSuite/RegressionScenarios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDAF03F-F471-468E-ABD8-2B7D42829962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E693C532-59FE-4BFA-B5A3-20FB23952C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="18780" windowHeight="9920" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="59">
   <si>
     <t>Scenario Type</t>
   </si>
@@ -190,13 +190,34 @@
   </si>
   <si>
     <t>GAAP GL Account Class Profile</t>
+  </si>
+  <si>
+    <t>Project Type Profile</t>
+  </si>
+  <si>
+    <t>Object Profile</t>
+  </si>
+  <si>
+    <t>GAAP Category Profile</t>
+  </si>
+  <si>
+    <t>TS_SM_FOU_AppropriationGroupProfile_Regression_001</t>
+  </si>
+  <si>
+    <t>Appropriation Group Profile</t>
+  </si>
+  <si>
+    <t>TS_SM_FOU_StateFundGroupProfile_Regression_001</t>
+  </si>
+  <si>
+    <t>State Fund Group Profile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +245,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -246,8 +274,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -289,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -297,10 +325,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -615,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B130D1-9A15-4CB4-A42C-CA3AEBC8C272}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -643,199 +672,199 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="C13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -844,10 +873,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>7</v>
@@ -858,10 +887,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>7</v>
@@ -872,10 +901,10 @@
         <v>4</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>7</v>
@@ -886,10 +915,10 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>7</v>
@@ -900,10 +929,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>7</v>
@@ -914,10 +943,10 @@
         <v>4</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>7</v>
@@ -928,58 +957,86 @@
         <v>4</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="D24" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="6" t="s">
+      <c r="D25" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="6" t="s">
+      <c r="D26" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/java/TestSuite/RegressionScenarios.xlsx
+++ b/src/main/java/TestSuite/RegressionScenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E693C532-59FE-4BFA-B5A3-20FB23952C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1712957-BEE0-4B12-902B-4129497A761D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
   </bookViews>
@@ -647,7 +647,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -682,7 +682,7 @@
       <c r="C2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -696,7 +696,7 @@
       <c r="C3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -823,7 +823,7 @@
         <v>53</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -865,7 +865,7 @@
         <v>58</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1033,7 +1033,7 @@
         <v>50</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35"/>

--- a/src/main/java/TestSuite/RegressionScenarios.xlsx
+++ b/src/main/java/TestSuite/RegressionScenarios.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1712957-BEE0-4B12-902B-4129497A761D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90194EB4-546C-4368-86CD-017E58AEAFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
   </bookViews>
@@ -646,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B130D1-9A15-4CB4-A42C-CA3AEBC8C272}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -865,7 +865,7 @@
         <v>58</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1033,7 +1033,7 @@
         <v>50</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35"/>

--- a/src/main/java/TestSuite/RegressionScenarios.xlsx
+++ b/src/main/java/TestSuite/RegressionScenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90194EB4-546C-4368-86CD-017E58AEAFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CA792D-F302-4F04-A8AA-0C2BE013725E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
+    <workbookView xWindow="420" yWindow="880" windowWidth="18780" windowHeight="9920" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
   <si>
     <t>Scenario Type</t>
   </si>
@@ -211,6 +211,12 @@
   </si>
   <si>
     <t>State Fund Group Profile</t>
+  </si>
+  <si>
+    <t>TS_SM_TE_BalanceTypeProfile_Regression_01</t>
+  </si>
+  <si>
+    <t>Balance Type Profile</t>
   </si>
 </sst>
 </file>
@@ -647,7 +653,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1033,10 +1039,23 @@
         <v>50</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/java/TestSuite/RegressionScenarios.xlsx
+++ b/src/main/java/TestSuite/RegressionScenarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdeepika\Documents\Rstars-Automation\src\main\java\TestSuite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CA792D-F302-4F04-A8AA-0C2BE013725E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8099C5E7-17EE-49D8-A495-2475059C1590}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="880" windowWidth="18780" windowHeight="9920" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
+    <workbookView xWindow="12" yWindow="12" windowWidth="23016" windowHeight="12336" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="63">
   <si>
     <t>Scenario Type</t>
   </si>
@@ -217,6 +217,12 @@
   </si>
   <si>
     <t>Balance Type Profile</t>
+  </si>
+  <si>
+    <t>TS_PM_APFA_ContractProfile_Regression_001</t>
+  </si>
+  <si>
+    <t>Contract Profile</t>
   </si>
 </sst>
 </file>
@@ -285,7 +291,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -319,11 +325,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -336,6 +351,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,21 +666,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B130D1-9A15-4CB4-A42C-CA3AEBC8C272}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,7 +694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -692,7 +708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -706,7 +722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -720,7 +736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -734,7 +750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
@@ -748,7 +764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
@@ -762,7 +778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
@@ -776,7 +792,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
@@ -790,7 +806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>4</v>
       </c>
@@ -804,7 +820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>4</v>
       </c>
@@ -818,7 +834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>4</v>
       </c>
@@ -832,7 +848,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>4</v>
       </c>
@@ -846,7 +862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>4</v>
       </c>
@@ -860,7 +876,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
@@ -874,7 +890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
@@ -888,7 +904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
@@ -902,7 +918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
@@ -916,7 +932,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
@@ -930,7 +946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
@@ -944,7 +960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
@@ -958,7 +974,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
@@ -972,7 +988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>4</v>
       </c>
@@ -986,7 +1002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1000,7 +1016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
@@ -1014,7 +1030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>4</v>
       </c>
@@ -1028,7 +1044,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>4</v>
       </c>
@@ -1042,7 +1058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>4</v>
       </c>
@@ -1054,6 +1070,20 @@
       </c>
       <c r="D28" s="3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/TestSuite/RegressionScenarios.xlsx
+++ b/src/main/java/TestSuite/RegressionScenarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdeepika\Documents\Rstars-Automation\src\main\java\TestSuite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8099C5E7-17EE-49D8-A495-2475059C1590}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7F1C5B-50C1-46C6-9507-2B5E12459B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="12" windowWidth="23016" windowHeight="12336" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="65">
   <si>
     <t>Scenario Type</t>
   </si>
@@ -223,6 +223,12 @@
   </si>
   <si>
     <t>Contract Profile</t>
+  </si>
+  <si>
+    <t>TS_PM_COA_PRI_GrantControlProfile_Regression_001</t>
+  </si>
+  <si>
+    <t>Grant Control Profile</t>
   </si>
 </sst>
 </file>
@@ -351,7 +357,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,21 +672,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B130D1-9A15-4CB4-A42C-CA3AEBC8C272}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -694,7 +700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -708,7 +714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -722,7 +728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -736,7 +742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -750,7 +756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
@@ -764,7 +770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
@@ -778,7 +784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
@@ -792,297 +798,311 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="D10" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="D11" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="7" t="s">
+      <c r="D12" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="7" t="s">
+      <c r="D13" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="D14" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="D15" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="D16" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="D17" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="D18" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="D19" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="D20" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="3" t="s">
+      <c r="D21" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="D22" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="D23" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="D24" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="3" t="s">
+      <c r="D25" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="5" t="s">
+      <c r="D26" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="5" t="s">
+      <c r="D27" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="5" t="s">
+      <c r="D28" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C30" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D30" s="8" t="s">
         <v>7</v>
       </c>
     </row>

--- a/src/main/java/TestSuite/RegressionScenarios.xlsx
+++ b/src/main/java/TestSuite/RegressionScenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7F1C5B-50C1-46C6-9507-2B5E12459B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF867F07-2EA2-4397-B03A-C0B0DF3FCEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
   </bookViews>
@@ -674,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B130D1-9A15-4CB4-A42C-CA3AEBC8C272}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1089,7 +1089,7 @@
         <v>60</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">

--- a/src/main/java/TestSuite/RegressionScenarios.xlsx
+++ b/src/main/java/TestSuite/RegressionScenarios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF867F07-2EA2-4397-B03A-C0B0DF3FCEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8E8A6A-2370-4398-946E-4035C6A08C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
+    <workbookView xWindow="420" yWindow="280" windowWidth="18780" windowHeight="9920" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="69">
   <si>
     <t>Scenario Type</t>
   </si>
@@ -229,6 +229,18 @@
   </si>
   <si>
     <t>Grant Control Profile</t>
+  </si>
+  <si>
+    <t>TS_SM_FOU_NacuboGLAccountCategoryProfile_Regression_001</t>
+  </si>
+  <si>
+    <t>NacuboGLAccountCategoryProfile</t>
+  </si>
+  <si>
+    <t>TS_SM_FOU_NacuboGLAccountClassProfile_Regression_001</t>
+  </si>
+  <si>
+    <t>NacuboGLAccountClassProfile</t>
   </si>
 </sst>
 </file>
@@ -297,7 +309,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -331,20 +343,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -357,7 +360,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,16 +674,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B130D1-9A15-4CB4-A42C-CA3AEBC8C272}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.36328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -809,7 +811,7 @@
         <v>64</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -910,7 +912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
@@ -924,7 +926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
@@ -938,7 +940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
@@ -952,7 +954,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
@@ -966,7 +968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
@@ -980,7 +982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
@@ -994,7 +996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>4</v>
       </c>
@@ -1008,7 +1010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1022,7 +1024,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
@@ -1036,7 +1038,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>4</v>
       </c>
@@ -1050,7 +1052,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>4</v>
       </c>
@@ -1064,7 +1066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>4</v>
       </c>
@@ -1078,7 +1080,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>4</v>
       </c>
@@ -1092,19 +1094,125 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="D30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="3"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="3"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="3"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="3"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="3"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="3"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="3"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="3"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="3"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/src/main/java/TestSuite/RegressionScenarios.xlsx
+++ b/src/main/java/TestSuite/RegressionScenarios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8E8A6A-2370-4398-946E-4035C6A08C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DEB441-D651-4587-A904-13669E49D721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="280" windowWidth="18780" windowHeight="9920" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
+    <workbookView xWindow="10" yWindow="10" windowWidth="19190" windowHeight="10190" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="73">
   <si>
     <t>Scenario Type</t>
   </si>
@@ -241,6 +241,18 @@
   </si>
   <si>
     <t>NacuboGLAccountClassProfile</t>
+  </si>
+  <si>
+    <t>TS_SM_FOU_GrantTypeProfile_Regression_001</t>
+  </si>
+  <si>
+    <t>Grant Type Profile</t>
+  </si>
+  <si>
+    <t>TS_SM_FOU_GrantCategoryProfile_Regression_001</t>
+  </si>
+  <si>
+    <t>Grant Category Profile</t>
   </si>
 </sst>
 </file>
@@ -674,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B130D1-9A15-4CB4-A42C-CA3AEBC8C272}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -912,32 +924,32 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>7</v>
+    <row r="17" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -945,10 +957,10 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>7</v>
@@ -959,10 +971,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>7</v>
@@ -973,10 +985,10 @@
         <v>4</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>7</v>
@@ -987,10 +999,10 @@
         <v>4</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>7</v>
@@ -1001,10 +1013,10 @@
         <v>4</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>7</v>
@@ -1015,10 +1027,10 @@
         <v>4</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>7</v>
@@ -1029,112 +1041,108 @@
         <v>4</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="D27" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="5" t="s">
+      <c r="D28" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="5" t="s">
+      <c r="D29" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="5" t="s">
+      <c r="D30" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="D31" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="5"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>7</v>
@@ -1143,18 +1151,34 @@
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="3"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+      <c r="A33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E33" s="3"/>
       <c r="F33" s="5"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="3"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="A34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E34" s="3"/>
       <c r="F34" s="5"/>
     </row>
@@ -1214,6 +1238,22 @@
       <c r="E41" s="3"/>
       <c r="F41" s="5"/>
     </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="3"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="3"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/java/TestSuite/RegressionScenarios.xlsx
+++ b/src/main/java/TestSuite/RegressionScenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8E8A6A-2370-4398-946E-4035C6A08C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954680B3-C422-4EBB-9195-83396CFEF806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="280" windowWidth="18780" windowHeight="9920" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -676,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B130D1-9A15-4CB4-A42C-CA3AEBC8C272}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -951,7 +951,7 @@
         <v>14</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1121,7 +1121,7 @@
         <v>66</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="5"/>

--- a/src/main/java/TestSuite/RegressionScenarios.xlsx
+++ b/src/main/java/TestSuite/RegressionScenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954680B3-C422-4EBB-9195-83396CFEF806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8E8A6A-2370-4398-946E-4035C6A08C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
+    <workbookView xWindow="420" yWindow="280" windowWidth="18780" windowHeight="9920" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -676,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B130D1-9A15-4CB4-A42C-CA3AEBC8C272}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -951,7 +951,7 @@
         <v>14</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1121,7 +1121,7 @@
         <v>66</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="5"/>

--- a/src/main/java/TestSuite/RegressionScenarios.xlsx
+++ b/src/main/java/TestSuite/RegressionScenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DEB441-D651-4587-A904-13669E49D721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557D331D-F56B-438F-8281-A0759E1428A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="10" windowWidth="19190" windowHeight="10190" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -688,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B130D1-9A15-4CB4-A42C-CA3AEBC8C272}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -739,7 +739,7 @@
         <v>35</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -949,7 +949,7 @@
         <v>72</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">

--- a/src/main/java/TestSuite/RegressionScenarios.xlsx
+++ b/src/main/java/TestSuite/RegressionScenarios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557D331D-F56B-438F-8281-A0759E1428A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEE0E0F-AFEF-4AFB-B022-E65772C2DA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="80">
   <si>
     <t>Scenario Type</t>
   </si>
@@ -99,9 +99,6 @@
     <t>TS_PM_COA_SEC_AgencyCode1_Regression_001</t>
   </si>
   <si>
-    <t>Agency Code 4</t>
-  </si>
-  <si>
     <t>TS_PM_COA_SEC_AgencyObjectGroupProfile_Regression_001</t>
   </si>
   <si>
@@ -253,6 +250,30 @@
   </si>
   <si>
     <t>Grant Category Profile</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Sprint 5</t>
+  </si>
+  <si>
+    <t>Sprint 6</t>
+  </si>
+  <si>
+    <t>Agency Object Group Profile</t>
   </si>
 </sst>
 </file>
@@ -321,7 +342,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -355,11 +376,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -372,6 +404,8 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -689,7 +723,7 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -700,7 +734,7 @@
     <col min="4" max="4" width="7.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,243 +747,297 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="E8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="C16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>7</v>
+      <c r="D18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -957,13 +1045,16 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -971,125 +1062,152 @@
         <v>4</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="E20" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>7</v>
+      <c r="A21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>7</v>
+      <c r="A22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>7</v>
+      <c r="A23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>7</v>
+      <c r="A24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>7</v>
+      <c r="A25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>7</v>
+      <c r="A26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>41</v>
+      <c r="B27" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>43</v>
+      <c r="B28" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -1097,13 +1215,16 @@
         <v>4</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1111,43 +1232,51 @@
         <v>4</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="E30" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>7</v>
+      <c r="A31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="3"/>
+      <c r="A32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>78</v>
+      </c>
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -1155,15 +1284,17 @@
         <v>4</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="D33" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="3"/>
+      <c r="E33" t="s">
+        <v>78</v>
+      </c>
       <c r="F33" s="5"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -1171,15 +1302,17 @@
         <v>4</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="D34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="3"/>
+      <c r="E34" t="s">
+        <v>78</v>
+      </c>
       <c r="F34" s="5"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -1255,6 +1388,9 @@
       <c r="F43" s="5"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E43">
+    <sortCondition ref="E2:E43"/>
+  </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/java/TestSuite/RegressionScenarios.xlsx
+++ b/src/main/java/TestSuite/RegressionScenarios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEE0E0F-AFEF-4AFB-B022-E65772C2DA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A534552-F0C1-4BD6-849F-4B746A771AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
+    <workbookView xWindow="10" yWindow="10" windowWidth="19190" windowHeight="10190" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -391,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -402,10 +402,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -723,7 +724,7 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -747,58 +748,58 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>73</v>
       </c>
     </row>
@@ -820,16 +821,16 @@
       </c>
     </row>
     <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E6" t="s">
@@ -837,19 +838,19 @@
       </c>
     </row>
     <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
         <v>74</v>
       </c>
     </row>
@@ -864,7 +865,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
         <v>74</v>
@@ -973,16 +974,16 @@
       </c>
     </row>
     <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E15" t="s">
@@ -990,16 +991,16 @@
       </c>
     </row>
     <row r="16" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E16" t="s">
@@ -1007,16 +1008,16 @@
       </c>
     </row>
     <row r="17" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E17" t="s">
@@ -1024,16 +1025,16 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E18" t="s">
@@ -1075,16 +1076,16 @@
       </c>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="7" t="s">
+      <c r="A21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E21" t="s">
@@ -1092,16 +1093,16 @@
       </c>
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="7" t="s">
+      <c r="A22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E22" t="s">
@@ -1109,16 +1110,16 @@
       </c>
     </row>
     <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="7" t="s">
+      <c r="A23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E23" t="s">
@@ -1126,16 +1127,16 @@
       </c>
     </row>
     <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="7" t="s">
+      <c r="A24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E24" t="s">
